--- a/TRS_DIN5_Adapter/TRS-DIN5_Adapter_bom.xlsx
+++ b/TRS_DIN5_Adapter/TRS-DIN5_Adapter_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Desktop/TRS_DIN5_Adapter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/TRS_DIN5_Adapter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870976F7-6F5D-4043-8B06-F34004F91E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A279532C-A241-B34E-BC5A-EA5EE5456803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39640" yWindow="1320" windowWidth="28800" windowHeight="16400" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
+    <workbookView xWindow="-39640" yWindow="1300" windowWidth="28800" windowHeight="16400" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru4" sheetId="1" r:id="rId1"/>
@@ -500,9 +500,6 @@
     <t>5-pin DIN connector</t>
   </si>
   <si>
-    <t>MIDI socket</t>
-  </si>
-  <si>
     <t>Soldereing instruction and tips:</t>
   </si>
   <si>
@@ -537,6 +534,9 @@
   </si>
   <si>
     <t>* Use only TRS 3.5mm cables. Do not use mono eurorack cables.</t>
+  </si>
+  <si>
+    <t>SDS-50J</t>
   </si>
 </sst>
 </file>
@@ -723,15 +723,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:AJ159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1116,13 +1116,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
       <c r="R2" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -1365,13 +1365,13 @@
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1404,13 +1404,13 @@
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1443,10 +1443,10 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -1496,7 +1496,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1529,11 +1529,11 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:29" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="E16" s="6"/>
       <c r="R16" t="s">
         <v>11</v>
@@ -1561,12 +1561,12 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="19"/>
       <c r="R17" t="s">
         <v>11</v>
@@ -1594,12 +1594,12 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="R18" t="s">
         <v>11</v>
